--- a/src/test/resources/excelData/customerRegisterData.xlsx
+++ b/src/test/resources/excelData/customerRegisterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20212025-IT\20242025-1\IntelliJ\DemoTestNG\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D73EC32-1668-4509-B661-44A5874EF2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85798F16-BED2-4263-BE03-BA6BC125B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>phoneNumber</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>password123!</t>
+  </si>
+  <si>
+    <t>0987654329</t>
   </si>
 </sst>
 </file>
@@ -156,11 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +472,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,8 +674,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
+      <c r="A13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -687,7 +691,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">

--- a/src/test/resources/excelData/customerRegisterData.xlsx
+++ b/src/test/resources/excelData/customerRegisterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20212025-IT\20242025-1\IntelliJ\DemoTestNG\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85798F16-BED2-4263-BE03-BA6BC125B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D740C-BDEE-44C9-A770-D259DBC4F2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>Password123!</t>
+  </si>
+  <si>
+    <t>StrongPass1!</t>
+  </si>
+  <si>
+    <t>0901234567</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>shortphone</t>
+  </si>
+  <si>
+    <t>091234567890</t>
+  </si>
+  <si>
+    <t>longphone</t>
+  </si>
+  <si>
+    <t>A912345678</t>
+  </si>
+  <si>
+    <t>invalidchars</t>
+  </si>
+  <si>
+    <t>812345678</t>
+  </si>
+  <si>
+    <t>wrongstart</t>
+  </si>
+  <si>
+    <t>WrongPass1!</t>
+  </si>
+  <si>
+    <t>emptypassword</t>
+  </si>
+  <si>
+    <t>emptyphonenumber</t>
+  </si>
+  <si>
+    <t>0912345679</t>
+  </si>
+  <si>
+    <t>weakpassword</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>emptyconfirmpassword</t>
+  </si>
   <si>
     <t>phoneNumber</t>
   </si>
@@ -37,70 +94,19 @@
     <t>status</t>
   </si>
   <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>abcdefghij</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>Password123!</t>
-  </si>
-  <si>
-    <t>Pass@word456</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>PASSWORD123!</t>
-  </si>
-  <si>
-    <t>Pass!@#</t>
-  </si>
-  <si>
-    <t>password123!</t>
-  </si>
-  <si>
-    <t>0987654329</t>
+    <t>wrongconfirmpassword</t>
+  </si>
+  <si>
+    <t>validuser1</t>
+  </si>
+  <si>
+    <t>validuser2</t>
+  </si>
+  <si>
+    <t>0912345680</t>
+  </si>
+  <si>
+    <t>0912345699</t>
   </si>
 </sst>
 </file>
@@ -469,50 +475,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -520,16 +526,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -537,16 +543,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -554,16 +560,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -571,13 +577,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -585,16 +594,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -602,33 +611,30 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -636,16 +642,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -653,57 +653,65 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="b">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
